--- a/project/CV/CV_33.xlsx
+++ b/project/CV/CV_33.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,898 +498,4681 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>albany</t>
+          <t>adair</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>382894</v>
+        <v>165851</v>
       </c>
       <c r="D2" t="n">
-        <v>1003</v>
+        <v>7634</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F2" t="n">
-        <v>56001</v>
+        <v>21001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.136</v>
+        <v>0.076</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1</v>
+        <v>0.115</v>
       </c>
       <c r="I2" t="n">
-        <v>0.151</v>
+        <v>0.167</v>
       </c>
       <c r="J2" t="n">
-        <v>0.181</v>
+        <v>0.243</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4320000000000001</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>big horn</t>
+          <t>allen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>79950</v>
+        <v>153823</v>
       </c>
       <c r="D3" t="n">
-        <v>1983</v>
+        <v>3048</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F3" t="n">
-        <v>56003</v>
+        <v>21003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.182</v>
+        <v>0.101</v>
       </c>
       <c r="H3" t="n">
-        <v>0.187</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.12</v>
+        <v>0.097</v>
       </c>
       <c r="J3" t="n">
-        <v>0.257</v>
+        <v>0.211</v>
       </c>
       <c r="K3" t="n">
-        <v>0.253</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>campbell</t>
+          <t>anderson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>407159</v>
+        <v>107895</v>
       </c>
       <c r="D4" t="n">
-        <v>3064</v>
+        <v>651</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F4" t="n">
-        <v>56005</v>
+        <v>21005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2160000000000001</v>
+        <v>0.062</v>
       </c>
       <c r="H4" t="n">
-        <v>0.164</v>
+        <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>0.131</v>
+        <v>0.044</v>
       </c>
       <c r="J4" t="n">
-        <v>0.201</v>
+        <v>0.483</v>
       </c>
       <c r="K4" t="n">
-        <v>0.289</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>ballard</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>111411</v>
+        <v>28248</v>
       </c>
       <c r="D5" t="n">
-        <v>1506</v>
+        <v>308</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F5" t="n">
-        <v>56007</v>
+        <v>21007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.044</v>
+        <v>0.107</v>
       </c>
       <c r="H5" t="n">
-        <v>0.137</v>
+        <v>0.033</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.198</v>
       </c>
       <c r="J5" t="n">
-        <v>0.278</v>
+        <v>0.257</v>
       </c>
       <c r="K5" t="n">
-        <v>0.454</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>converse</t>
+          <t>barren</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>88231</v>
+        <v>331529</v>
       </c>
       <c r="D6" t="n">
-        <v>988</v>
+        <v>4366</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F6" t="n">
-        <v>56009</v>
+        <v>21009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.138</v>
+        <v>0.053</v>
       </c>
       <c r="H6" t="n">
-        <v>0.113</v>
+        <v>0.093</v>
       </c>
       <c r="I6" t="n">
-        <v>0.121</v>
+        <v>0.09</v>
       </c>
       <c r="J6" t="n">
-        <v>0.293</v>
+        <v>0.176</v>
       </c>
       <c r="K6" t="n">
-        <v>0.335</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>crook</t>
+          <t>bath</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39442</v>
+        <v>54692</v>
       </c>
       <c r="D7" t="n">
-        <v>680</v>
+        <v>781</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F7" t="n">
-        <v>56011</v>
+        <v>21011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.145</v>
+        <v>0.076</v>
       </c>
       <c r="H7" t="n">
-        <v>0.115</v>
+        <v>0.058</v>
       </c>
       <c r="I7" t="n">
-        <v>0.143</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>0.192</v>
+        <v>0.339</v>
       </c>
       <c r="K7" t="n">
-        <v>0.404</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fremont</t>
+          <t>bell</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>473835</v>
+        <v>224148</v>
       </c>
       <c r="D8" t="n">
-        <v>7389</v>
+        <v>3541</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F8" t="n">
-        <v>56013</v>
+        <v>21013</v>
       </c>
       <c r="G8" t="n">
-        <v>0.16</v>
+        <v>0.146</v>
       </c>
       <c r="H8" t="n">
-        <v>0.062</v>
+        <v>0.094</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="J8" t="n">
-        <v>0.294</v>
+        <v>0.199</v>
       </c>
       <c r="K8" t="n">
-        <v>0.424</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>goshen</t>
+          <t>boone</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>95741</v>
+        <v>940547</v>
       </c>
       <c r="D9" t="n">
-        <v>1558</v>
+        <v>8194</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F9" t="n">
-        <v>56015</v>
+        <v>21015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.201</v>
+        <v>0.08</v>
       </c>
       <c r="H9" t="n">
-        <v>0.169</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.111</v>
+        <v>0.081</v>
       </c>
       <c r="J9" t="n">
-        <v>0.223</v>
+        <v>0.232</v>
       </c>
       <c r="K9" t="n">
-        <v>0.296</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hot springs</t>
+          <t>bourbon</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27115</v>
+        <v>111212</v>
       </c>
       <c r="D10" t="n">
-        <v>133</v>
+        <v>618</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F10" t="n">
-        <v>56017</v>
+        <v>21017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.208</v>
+        <v>0.024</v>
       </c>
       <c r="H10" t="n">
-        <v>0.093</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.068</v>
+        <v>0.042</v>
       </c>
       <c r="J10" t="n">
-        <v>0.307</v>
+        <v>0.129</v>
       </c>
       <c r="K10" t="n">
-        <v>0.324</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>johnson</t>
+          <t>boyd</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>51283</v>
+        <v>324633</v>
       </c>
       <c r="D11" t="n">
-        <v>825</v>
+        <v>4133</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F11" t="n">
-        <v>56019</v>
+        <v>21019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.183</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.208</v>
+        <v>0.125</v>
       </c>
       <c r="I11" t="n">
-        <v>0.103</v>
+        <v>0.202</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2160000000000001</v>
+        <v>0.235</v>
       </c>
       <c r="K11" t="n">
-        <v>0.29</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>laramie</t>
+          <t>boyle</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>729852</v>
+        <v>220071</v>
       </c>
       <c r="D12" t="n">
-        <v>5798</v>
+        <v>755</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F12" t="n">
-        <v>56021</v>
+        <v>21021</v>
       </c>
       <c r="G12" t="n">
-        <v>0.143</v>
+        <v>0.092</v>
       </c>
       <c r="H12" t="n">
-        <v>0.127</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1</v>
+        <v>0.112</v>
       </c>
       <c r="J12" t="n">
-        <v>0.221</v>
+        <v>0.161</v>
       </c>
       <c r="K12" t="n">
-        <v>0.409</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lincoln</t>
+          <t>bracken</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>105304</v>
+        <v>32915</v>
       </c>
       <c r="D13" t="n">
-        <v>988</v>
+        <v>318</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F13" t="n">
-        <v>56023</v>
+        <v>21023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.131</v>
+        <v>0.056</v>
       </c>
       <c r="H13" t="n">
-        <v>0.183</v>
+        <v>0.249</v>
       </c>
       <c r="I13" t="n">
-        <v>0.128</v>
+        <v>0.065</v>
       </c>
       <c r="J13" t="n">
-        <v>0.235</v>
+        <v>0.238</v>
       </c>
       <c r="K13" t="n">
-        <v>0.324</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>natrona</t>
+          <t>breathitt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>655423</v>
+        <v>63529</v>
       </c>
       <c r="D14" t="n">
-        <v>8058</v>
+        <v>307</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F14" t="n">
-        <v>56025</v>
+        <v>21025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1</v>
+        <v>0.114</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.081</v>
       </c>
       <c r="I14" t="n">
-        <v>0.094</v>
+        <v>0.126</v>
       </c>
       <c r="J14" t="n">
-        <v>0.325</v>
+        <v>0.241</v>
       </c>
       <c r="K14" t="n">
-        <v>0.398</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>niobrara</t>
+          <t>breckinridge</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12988</v>
+        <v>79617</v>
       </c>
       <c r="D15" t="n">
-        <v>121</v>
+        <v>784</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F15" t="n">
-        <v>56027</v>
+        <v>21027</v>
       </c>
       <c r="G15" t="n">
-        <v>0.169</v>
+        <v>0.023</v>
       </c>
       <c r="H15" t="n">
-        <v>0.191</v>
+        <v>0.146</v>
       </c>
       <c r="I15" t="n">
         <v>0.177</v>
       </c>
       <c r="J15" t="n">
-        <v>0.222</v>
+        <v>0.138</v>
       </c>
       <c r="K15" t="n">
-        <v>0.241</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>bullitt</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>214494</v>
+        <v>492251</v>
       </c>
       <c r="D16" t="n">
-        <v>1228</v>
+        <v>4084</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F16" t="n">
-        <v>56029</v>
+        <v>21029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.189</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0.153</v>
+        <v>0.091</v>
       </c>
       <c r="I16" t="n">
-        <v>0.191</v>
+        <v>0.156</v>
       </c>
       <c r="J16" t="n">
-        <v>0.205</v>
+        <v>0.181</v>
       </c>
       <c r="K16" t="n">
-        <v>0.262</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>platte</t>
+          <t>butler</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>45782</v>
+        <v>138639</v>
       </c>
       <c r="D17" t="n">
-        <v>902</v>
+        <v>4282</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F17" t="n">
-        <v>56031</v>
+        <v>21031</v>
       </c>
       <c r="G17" t="n">
-        <v>0.149</v>
+        <v>0.066</v>
       </c>
       <c r="H17" t="n">
-        <v>0.149</v>
+        <v>0.097</v>
       </c>
       <c r="I17" t="n">
-        <v>0.123</v>
+        <v>0.133</v>
       </c>
       <c r="J17" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="K17" t="n">
-        <v>0.418</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sheridan</t>
+          <t>caldwell</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>261338</v>
+        <v>98253</v>
       </c>
       <c r="D18" t="n">
-        <v>1706</v>
+        <v>1180</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F18" t="n">
-        <v>56033</v>
+        <v>21033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.17</v>
+        <v>0.059</v>
       </c>
       <c r="H18" t="n">
-        <v>0.251</v>
+        <v>0.067</v>
       </c>
       <c r="I18" t="n">
-        <v>0.099</v>
+        <v>0.26</v>
       </c>
       <c r="J18" t="n">
-        <v>0.203</v>
+        <v>0.177</v>
       </c>
       <c r="K18" t="n">
-        <v>0.278</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sublette</t>
+          <t>calloway</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>61831</v>
+        <v>289828</v>
       </c>
       <c r="D19" t="n">
-        <v>529</v>
+        <v>3083</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F19" t="n">
-        <v>56035</v>
+        <v>21035</v>
       </c>
       <c r="G19" t="n">
-        <v>0.223</v>
+        <v>0.066</v>
       </c>
       <c r="H19" t="n">
-        <v>0.111</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.061</v>
+        <v>0.248</v>
       </c>
       <c r="J19" t="n">
-        <v>0.231</v>
+        <v>0.17</v>
       </c>
       <c r="K19" t="n">
-        <v>0.374</v>
+        <v>0.4320000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sweetwater</t>
+          <t>campbell</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>294815</v>
+        <v>558338</v>
       </c>
       <c r="D20" t="n">
-        <v>1967</v>
+        <v>5932</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F20" t="n">
-        <v>56037</v>
+        <v>21037</v>
       </c>
       <c r="G20" t="n">
-        <v>0.061</v>
+        <v>0.073</v>
       </c>
       <c r="H20" t="n">
-        <v>0.295</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.23</v>
+        <v>0.134</v>
       </c>
       <c r="J20" t="n">
-        <v>0.146</v>
+        <v>0.278</v>
       </c>
       <c r="K20" t="n">
-        <v>0.268</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>teton</t>
+          <t>carlisle</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>279015</v>
+        <v>36687</v>
       </c>
       <c r="D21" t="n">
-        <v>548</v>
+        <v>288</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F21" t="n">
-        <v>56039</v>
+        <v>21039</v>
       </c>
       <c r="G21" t="n">
-        <v>0.095</v>
+        <v>0.104</v>
       </c>
       <c r="H21" t="n">
-        <v>0.157</v>
+        <v>0.045</v>
       </c>
       <c r="I21" t="n">
-        <v>0.16</v>
+        <v>0.188</v>
       </c>
       <c r="J21" t="n">
-        <v>0.247</v>
+        <v>0.236</v>
       </c>
       <c r="K21" t="n">
-        <v>0.34</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>uinta</t>
+          <t>carroll</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>184709</v>
+        <v>75791</v>
       </c>
       <c r="D22" t="n">
-        <v>941</v>
+        <v>1155</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F22" t="n">
-        <v>56041</v>
+        <v>21041</v>
       </c>
       <c r="G22" t="n">
-        <v>0.098</v>
+        <v>0.155</v>
       </c>
       <c r="H22" t="n">
-        <v>0.278</v>
+        <v>0.171</v>
       </c>
       <c r="I22" t="n">
-        <v>0.154</v>
+        <v>0.12</v>
       </c>
       <c r="J22" t="n">
-        <v>0.207</v>
+        <v>0.208</v>
       </c>
       <c r="K22" t="n">
-        <v>0.264</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>washakie</t>
+          <t>carter</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>77366</v>
+        <v>142069</v>
       </c>
       <c r="D23" t="n">
-        <v>2414</v>
+        <v>1293</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F23" t="n">
-        <v>56043</v>
+        <v>21043</v>
       </c>
       <c r="G23" t="n">
-        <v>0.204</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0.155</v>
+        <v>0.102</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.122</v>
       </c>
       <c r="J23" t="n">
-        <v>0.285</v>
+        <v>0.324</v>
       </c>
       <c r="K23" t="n">
-        <v>0.287</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>weston</t>
+          <t>casey</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>wyoming</t>
+          <t>kentucky</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>52034</v>
+        <v>113195</v>
       </c>
       <c r="D24" t="n">
-        <v>246</v>
+        <v>4065</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F24" t="n">
-        <v>56045</v>
+        <v>21045</v>
       </c>
       <c r="G24" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>christian</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>549514</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7835</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F25" t="n">
+        <v>21047</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>clark</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>180048</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2478</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F26" t="n">
+        <v>21049</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>184900</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1899</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F27" t="n">
+        <v>21051</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.08199999999999999</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>clinton</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>95973</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F28" t="n">
+        <v>21053</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>crittenden</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>45545</v>
+      </c>
+      <c r="D29" t="n">
+        <v>681</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F29" t="n">
+        <v>21055</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.319</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>cumberland</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>52723</v>
+      </c>
+      <c r="D30" t="n">
+        <v>445</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F30" t="n">
+        <v>21057</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>daviess</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>721658</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10979</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F31" t="n">
+        <v>21059</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.531</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>edmonson</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>74405</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3361</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F32" t="n">
+        <v>21061</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>elliott</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>80372</v>
+      </c>
+      <c r="D33" t="n">
+        <v>71</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F33" t="n">
+        <v>21063</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>estill</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>76082</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F34" t="n">
+        <v>21065</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.08199999999999999</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.402</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>fayette</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3051671</v>
+      </c>
+      <c r="D35" t="n">
+        <v>24036</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F35" t="n">
+        <v>21067</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>fleming</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>73715</v>
+      </c>
+      <c r="D36" t="n">
+        <v>365</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F36" t="n">
+        <v>21069</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>floyd</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>199872</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1471</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F37" t="n">
+        <v>21071</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>franklin</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>273996</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3195</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F38" t="n">
+        <v>21073</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I38" t="n">
         <v>0.142</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J38" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.521</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>fulton</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>51088</v>
+      </c>
+      <c r="D39" t="n">
+        <v>631</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F39" t="n">
+        <v>21075</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>gallatin</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>52505</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2325</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F40" t="n">
+        <v>21077</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.466</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>garrard</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>106101</v>
+      </c>
+      <c r="D41" t="n">
+        <v>629</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F41" t="n">
+        <v>21079</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>139232</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1807</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F42" t="n">
+        <v>21081</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.608</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>graves</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>344245</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9277</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F43" t="n">
+        <v>21083</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>grayson</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>170621</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5111</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F44" t="n">
+        <v>21085</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>97474</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1874</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F45" t="n">
+        <v>21087</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.488</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>greenup</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>245746</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2169</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F46" t="n">
+        <v>21089</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.342</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>hancock</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>56021</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1202</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F47" t="n">
+        <v>21091</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.546</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>hardin</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>705185</v>
+      </c>
+      <c r="D48" t="n">
+        <v>6070</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F48" t="n">
+        <v>21093</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.5579999999999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>harlan</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>187307</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3466</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F49" t="n">
+        <v>21095</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.606</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>harrison</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>102970</v>
+      </c>
+      <c r="D50" t="n">
+        <v>235</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F50" t="n">
+        <v>21097</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.804</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>hart</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>140550</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1085</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F51" t="n">
+        <v>21099</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>henderson</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>370571</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6058</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F52" t="n">
+        <v>21101</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>henry</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>96376</v>
+      </c>
+      <c r="D53" t="n">
+        <v>684</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F53" t="n">
+        <v>21103</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.08199999999999999</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.398</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>hickman</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>29314</v>
+      </c>
+      <c r="D54" t="n">
+        <v>460</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F54" t="n">
+        <v>21105</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.415</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>hopkins</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>345785</v>
+      </c>
+      <c r="D55" t="n">
+        <v>15701</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F55" t="n">
+        <v>21107</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>jackson</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>122656</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4803</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F56" t="n">
+        <v>21109</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.421</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>jefferson</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>6834700</v>
+      </c>
+      <c r="D57" t="n">
+        <v>111410</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F57" t="n">
+        <v>21111</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.602</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>jessamine</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>320687</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4125</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F58" t="n">
+        <v>21113</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>johnson</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>125077</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1244</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F59" t="n">
+        <v>21115</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.612</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>kenton</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1126777</v>
+      </c>
+      <c r="D60" t="n">
+        <v>15635</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F60" t="n">
+        <v>21117</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>knott</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>87383</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1328</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F61" t="n">
+        <v>21119</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.4970000000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>knox</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>226988</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2029</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F62" t="n">
+        <v>21121</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.471</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>larue</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>95417</v>
+      </c>
+      <c r="D63" t="n">
+        <v>572</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F63" t="n">
+        <v>21123</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>laurel</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>444302</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2255</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F64" t="n">
+        <v>21125</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.517</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>lawrence</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>76899</v>
+      </c>
+      <c r="D65" t="n">
+        <v>464</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F65" t="n">
+        <v>21127</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.479</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>lee</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>97614</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1664</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F66" t="n">
+        <v>21129</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.129</v>
       </c>
-      <c r="I24" t="n">
+      <c r="H66" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.399</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>leslie</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>52111</v>
+      </c>
+      <c r="D67" t="n">
+        <v>144</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F67" t="n">
+        <v>21131</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.487</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>letcher</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>110616</v>
+      </c>
+      <c r="D68" t="n">
+        <v>588</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F68" t="n">
+        <v>21133</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>lewis</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>91926</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3396</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F69" t="n">
+        <v>21135</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>lincoln</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>146258</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3510</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F70" t="n">
+        <v>21137</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.05400000000000001</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.509</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>livingston</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>53159</v>
+      </c>
+      <c r="D71" t="n">
+        <v>893</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F71" t="n">
+        <v>21139</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.339</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>logan</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>231171</v>
+      </c>
+      <c r="D72" t="n">
+        <v>7411</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F72" t="n">
+        <v>21141</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.523</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>lyon</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>37475</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1432</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F73" t="n">
+        <v>21143</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.384</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>madison</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>694019</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3994</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F74" t="n">
+        <v>21151</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.471</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>magoffin</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>71618</v>
+      </c>
+      <c r="D75" t="n">
+        <v>94</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F75" t="n">
+        <v>21153</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>marion</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>167257</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2295</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F76" t="n">
+        <v>21155</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.08199999999999999</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.654</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>marshall</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>180168</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2616</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F77" t="n">
+        <v>21157</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.395</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>martin</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>69853</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1077</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F78" t="n">
+        <v>21159</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.637</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>mason</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>93434</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1541</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F79" t="n">
+        <v>21161</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.479</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>mccracken</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>465590</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4671</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F80" t="n">
+        <v>21145</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>mccreary</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>115566</v>
+      </c>
+      <c r="D81" t="n">
+        <v>877</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F81" t="n">
+        <v>21147</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>mclean</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>65065</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1956</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F82" t="n">
+        <v>21149</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>meade</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>135885</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F83" t="n">
+        <v>21163</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.5589999999999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>menifee</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>26808</v>
+      </c>
+      <c r="D84" t="n">
+        <v>333</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F84" t="n">
+        <v>21165</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.468</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>mercer</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>152385</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1076</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F85" t="n">
+        <v>21167</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.5670000000000001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>metcalfe</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>68992</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1112</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F86" t="n">
+        <v>21169</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.487</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>monroe</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>110570</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2554</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F87" t="n">
+        <v>21171</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.08199999999999999</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.448</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>montgomery</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>165451</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1532</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F88" t="n">
+        <v>21173</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>morgan</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>93502</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F89" t="n">
+        <v>21175</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>muhlenberg</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>312597</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5396</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F90" t="n">
+        <v>21177</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.488</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>nelson</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>339877</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F91" t="n">
+        <v>21179</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.5479999999999999</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>nicholas</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>32248</v>
+      </c>
+      <c r="D92" t="n">
+        <v>474</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F92" t="n">
+        <v>21181</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.591</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ohio</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>209345</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3681</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F93" t="n">
+        <v>21183</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4920000000000001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>oldham</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>506413</v>
+      </c>
+      <c r="D94" t="n">
+        <v>7202</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F94" t="n">
+        <v>21185</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>owen</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>45983</v>
+      </c>
+      <c r="D95" t="n">
+        <v>615</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F95" t="n">
+        <v>21187</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.5579999999999999</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>owsley</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>32271</v>
+      </c>
+      <c r="D96" t="n">
+        <v>690</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F96" t="n">
+        <v>21189</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.382</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>pendleton</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>65510</v>
+      </c>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F97" t="n">
+        <v>21191</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.613</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>perry</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>181300</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2328</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F98" t="n">
+        <v>21193</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>pike</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>339767</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3559</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F99" t="n">
+        <v>21195</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="J99" t="n">
         <v>0.148</v>
       </c>
-      <c r="J24" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.374</v>
+      <c r="K99" t="n">
+        <v>0.545</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>powell</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>73400</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F100" t="n">
+        <v>21197</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.455</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>pulaski</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>426297</v>
+      </c>
+      <c r="D101" t="n">
+        <v>5835</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F101" t="n">
+        <v>21199</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.487</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>robertson</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>13580</v>
+      </c>
+      <c r="D102" t="n">
+        <v>562</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F102" t="n">
+        <v>21201</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.586</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>rockcastle</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>101202</v>
+      </c>
+      <c r="D103" t="n">
+        <v>901</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F103" t="n">
+        <v>21203</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.474</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>rowan</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>138137</v>
+      </c>
+      <c r="D104" t="n">
+        <v>427</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F104" t="n">
+        <v>21205</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.467</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>russell</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>134726</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3720</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F105" t="n">
+        <v>21207</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>scott</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>321045</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3119</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F106" t="n">
+        <v>21209</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.759</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>shelby</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>419907</v>
+      </c>
+      <c r="D107" t="n">
+        <v>6046</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F107" t="n">
+        <v>21211</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.05400000000000001</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.487</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>simpson</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>137699</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2390</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F108" t="n">
+        <v>21213</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.426</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>spencer</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>114675</v>
+      </c>
+      <c r="D109" t="n">
+        <v>360</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F109" t="n">
+        <v>21215</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.453</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>taylor</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>196700</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2429</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F110" t="n">
+        <v>21217</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.5329999999999999</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>todd</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>82545</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2096</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F111" t="n">
+        <v>21219</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.394</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>trigg</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>79255</v>
+      </c>
+      <c r="D112" t="n">
+        <v>304</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F112" t="n">
+        <v>21221</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.597</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>trimble</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>40405</v>
+      </c>
+      <c r="D113" t="n">
+        <v>108</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F113" t="n">
+        <v>21223</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.342</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>union</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>118770</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F114" t="n">
+        <v>21225</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>warren</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1482218</v>
+      </c>
+      <c r="D115" t="n">
+        <v>13205</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F115" t="n">
+        <v>21227</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.609</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>washington</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>96681</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1165</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F116" t="n">
+        <v>21229</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>wayne</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>142022</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1855</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F117" t="n">
+        <v>21231</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>webster</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>96087</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1390</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F118" t="n">
+        <v>21233</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.451</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>whitley</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>289218</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1321</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F119" t="n">
+        <v>21235</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.476</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>wolfe</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>31068</v>
+      </c>
+      <c r="D120" t="n">
+        <v>225</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F120" t="n">
+        <v>21237</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.448</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>woodford</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>kentucky</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>148966</v>
+      </c>
+      <c r="D121" t="n">
+        <v>171</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F121" t="n">
+        <v>21239</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.698</v>
       </c>
     </row>
   </sheetData>
